--- a/Excel/MissionSubject.xlsx
+++ b/Excel/MissionSubject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\OneDrive\Documents\GitHub\wk\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E05FE11-7ED4-4995-B5DA-24FE87A90A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D72A07A-985B-45D5-A5F0-AAA2ACFE5D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>GroupID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,14 @@
   </si>
   <si>
     <t>SubjectReqMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -421,7 +429,7 @@
     <col min="8" max="9" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,8 +457,14 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -460,8 +474,10 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -471,8 +487,10 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -482,8 +500,10 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -493,8 +513,10 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -504,8 +526,10 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -515,8 +539,10 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -526,8 +552,10 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -537,8 +565,10 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -548,8 +578,10 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -559,8 +591,10 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -570,8 +604,10 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -581,8 +617,10 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -592,8 +630,10 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -603,6 +643,8 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
